--- a/August 2018/Saturday_Sunday_Weekday(PriceScen)/Unconstrained_AugPrice.xlsx
+++ b/August 2018/Saturday_Sunday_Weekday(PriceScen)/Unconstrained_AugPrice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\August 2018\Saturday_Sunday_Weekday(PriceScen)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4C001E7-08F4-467F-8C2E-A58F956CD70C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8D5DA73-A0CA-4FD4-BE28-33581D6DE4C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7644" xr2:uid="{EA25FD9A-0F35-4A01-9595-DEDCB5008116}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7644" xr2:uid="{D52C4B61-CCEA-4D86-83DF-C525C8DF9B2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="32" r:id="rId1"/>
@@ -978,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608A6E73-9BA9-42F6-98D5-470DC8E84A08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29AA9AA-A172-420B-AB7F-F64825BFB689}">
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2024,66 +2024,66 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="Scalar!A1" display="Convert" xr:uid="{17BA3309-8A4D-4D0E-BCE6-2C5326383593}"/>
-    <hyperlink ref="A3" location="d!A1" display="d" xr:uid="{8E74BE54-C22B-4D84-A56D-70C3C907FD59}"/>
-    <hyperlink ref="A4" location="Scalar!A1" display="Daily_RelRange" xr:uid="{6E78458E-BC2D-4921-AB65-5D2F7F405356}"/>
-    <hyperlink ref="A6" location="Days_Distribution!A1" display="Days_Distribution" xr:uid="{AC6EB75B-5EB8-41E1-B674-AC8AA3753B5A}"/>
-    <hyperlink ref="A7" location="Diff_Release!A1" display="Diff_Release" xr:uid="{21C96E49-6640-4E8A-8377-DE1431733A1E}"/>
-    <hyperlink ref="A8" location="Duration!A1" display="Duration" xr:uid="{060CE610-3DFD-4E52-BA71-DDEA78A75D0B}"/>
-    <hyperlink ref="A10" location="Energy_Price!A1" display="Energy_Price" xr:uid="{8EB06E4A-1397-492A-B8F7-2BFA7D9229D2}"/>
-    <hyperlink ref="A11" location="Energy_Rate!A1" display="Energy_Rate" xr:uid="{B51D527A-0FA1-4D95-BE27-97D0527528C1}"/>
-    <hyperlink ref="A12" location="EQ10_SteadyFlow_Day!A1" display="EQ10_SteadyFlow_Day" xr:uid="{E220F78B-F867-42BD-AAD4-C32AC3AAE231}"/>
-    <hyperlink ref="A13" location="EQ12_OffsetRel!A1" display="EQ12_OffsetRel" xr:uid="{D7B90BAB-0ADC-464F-85A5-8646C0A54DCB}"/>
-    <hyperlink ref="A14" location="EQ14_Steady_Saturdays!A1" display="EQ14_Steady_Saturdays" xr:uid="{0543665B-E78F-46F7-9317-E54314913843}"/>
-    <hyperlink ref="A15" location="EQ15_Steady_Weekdays!A1" display="EQ15_Steady_Weekdays" xr:uid="{46FC62B4-DDDE-48C3-9E68-8F375697B9F2}"/>
-    <hyperlink ref="A16" location="EQ17_OnPeak_UnsteadyDay!A1" display="EQ17_OnPeak_UnsteadyDay" xr:uid="{02B5D2E3-DE89-46C5-B49D-3411486BB616}"/>
-    <hyperlink ref="A17" location="EQ19_EnergyGen_Max!A1" display="EQ19_EnergyGen_Max" xr:uid="{9DD2E848-AA18-4650-94E8-4F91805C65AF}"/>
-    <hyperlink ref="A18" location="Scalar!A1" display="EQ1_ResMassBal" xr:uid="{09C2797C-313B-4B99-8864-CA205EBBEB58}"/>
-    <hyperlink ref="A19" location="EQ20_EnergyGen!A1" display="EQ20_EnergyGen" xr:uid="{4C2193EC-8B5D-4CF1-9EA8-CF253EF232AA}"/>
-    <hyperlink ref="A20" location="Scalar!A1" display="EQ21_EnergyRevenue" xr:uid="{C00CBDC3-01B2-45B2-8909-F32B07B921DC}"/>
-    <hyperlink ref="A21" location="Scalar!A1" display="EQ2_reqpowerstorage" xr:uid="{C9F9D7E0-769E-4D3A-AD25-067D87A051CF}"/>
-    <hyperlink ref="A22" location="Scalar!A1" display="EQ3_maxstor" xr:uid="{AF334D5C-C914-491C-BCA5-41F84B9BE26C}"/>
-    <hyperlink ref="A23" location="EQ4_MaxR!A1" display="EQ4_MaxR" xr:uid="{F518ADFA-CC2D-4CDB-8AE6-1B6C26E8B02D}"/>
-    <hyperlink ref="A24" location="EQ5_MinR!A1" display="EQ5_MinR" xr:uid="{E8A55C14-2AA2-4CED-A6A7-0FCBE50016FD}"/>
-    <hyperlink ref="A25" location="EQ6_ZeroFlowDays!A1" display="EQ6_ZeroFlowDays" xr:uid="{4106DA36-D5B4-4494-9094-6B226BA3207E}"/>
-    <hyperlink ref="A26" location="EQ7_Rel_Range!A1" display="EQ7_Rel_Range" xr:uid="{4F26E780-9290-4156-A3C7-2E8DD0441F69}"/>
-    <hyperlink ref="A27" location="Scalar!A1" display="EQ8_Monthtlyrel" xr:uid="{182B3B96-80C6-4680-AF73-D6A42D3CD9CF}"/>
-    <hyperlink ref="A28" location="Scalar!A1" display="EQ9_RelVolume" xr:uid="{4D1FFAD4-22D0-4575-97A2-67A422B384D7}"/>
-    <hyperlink ref="A29" location="Scalar!A1" display="evap" xr:uid="{64A29C5B-CF8C-4944-BF93-A0912BA85600}"/>
-    <hyperlink ref="A30" location="FlowPattern!A1" display="FlowPattern" xr:uid="{4195F45F-7BA8-4DD1-B9DD-0E39D18B15F3}"/>
-    <hyperlink ref="A32" location="FStore!A1" display="FStore" xr:uid="{60F6FD79-DFED-46BE-94AB-8EEDA264B835}"/>
-    <hyperlink ref="A33" location="Scalar!A1" display="Inflow" xr:uid="{9D0C0B23-6D6F-4A40-B3CD-A220391E6E76}"/>
-    <hyperlink ref="A34" location="Scalar!A1" display="Initstorage" xr:uid="{33B2F9BB-A3E6-4BF6-BEA0-C7781D4BD8BE}"/>
-    <hyperlink ref="A35" location="Scalar!A1" display="maxRel" xr:uid="{248D9AFE-CAD7-4046-A981-52DB76D8562F}"/>
-    <hyperlink ref="A36" location="Scalar!A1" display="maxstorage" xr:uid="{3EC4A323-633D-4000-BEA3-4CD32DD1CB20}"/>
-    <hyperlink ref="A37" location="Scalar!A1" display="minRel" xr:uid="{5D6E9D4E-21A3-4563-B8CA-696389BBE2F7}"/>
-    <hyperlink ref="A38" location="Scalar!A1" display="minstorage" xr:uid="{0F45B681-B656-4A64-8A44-EA8C68BCCB44}"/>
-    <hyperlink ref="A39" location="ModelResults!A1" display="ModelResults" xr:uid="{52D255DA-DDA1-4E32-ADE5-303F35220229}"/>
-    <hyperlink ref="A40" location="modpar!A1" display="modpar" xr:uid="{FAADAE77-7CB4-4DB2-B134-01EA29A768E0}"/>
-    <hyperlink ref="A41" location="Num_Days!A1" display="Num_Days" xr:uid="{FCC4A43F-9923-4849-B85F-7742653F6776}"/>
-    <hyperlink ref="A42" location="Scalar!A1" display="Nu_Saturdays" xr:uid="{1333BA01-3B8B-4D2E-9418-0ECCE4D6F75F}"/>
-    <hyperlink ref="A43" location="Nu_SteadyDays!A1" display="Nu_SteadyDays" xr:uid="{ADBC8109-A37D-4371-9307-81B0B279DE29}"/>
-    <hyperlink ref="A44" location="Scalar!A1" display="Nu_Sun_Holi" xr:uid="{16842271-8B1C-4EEF-8515-5C8F1FC6BE2F}"/>
-    <hyperlink ref="A45" location="Scalar!A1" display="ObjectiveVal" xr:uid="{835F4FEF-C26D-47D9-9900-BC0F6C75FBFE}"/>
-    <hyperlink ref="A46" location="Offset!A1" display="Offset" xr:uid="{7932F987-E352-4EE1-B719-5DD8B637A60A}"/>
-    <hyperlink ref="A47" location="p!A1" display="p" xr:uid="{4572CEBF-25E4-49C3-8781-E9EAADC0C3BD}"/>
-    <hyperlink ref="A49" location="Scalar!A1" display="Released_vol" xr:uid="{E13BFBB2-1572-4FB7-AD7A-075225ABE5A4}"/>
-    <hyperlink ref="A50" location="RStore!A1" display="RStore" xr:uid="{9121D925-3960-414E-AEED-AAC8BFDDCAA1}"/>
-    <hyperlink ref="A52" location="Sstore!A1" display="Sstore" xr:uid="{34FA31E5-404B-48F9-9261-653EDFDD9B52}"/>
-    <hyperlink ref="A53" location="Scalar!A1" display="storage" xr:uid="{C90D1BF4-6A35-4D44-AB6B-9FB1DDE33F3F}"/>
-    <hyperlink ref="A55" location="Scalar!A1" display="Totaldays" xr:uid="{E382D0F4-B568-4EE0-AC61-91AD4929EE01}"/>
-    <hyperlink ref="A56" location="Scalar!A1" display="TotMonth_volume" xr:uid="{850F5223-BE9D-491C-A566-A9FD449439CE}"/>
-    <hyperlink ref="A57" location="tot_vol!A1" display="tot_vol" xr:uid="{C2934316-3C7A-44F0-92C5-10F49EA8D779}"/>
-    <hyperlink ref="A58" location="Vol_monthlyrelease!A1" display="Vol_monthlyrelease" xr:uid="{0647711E-72B4-4AA3-907F-519D0875C3AE}"/>
-    <hyperlink ref="A60" location="Scalar!A1" display="Weekend_Rel" xr:uid="{77BF7804-4632-44FD-991B-E80F8EC94AD4}"/>
-    <hyperlink ref="A61" location="XStore!A1" display="XStore" xr:uid="{CC251D9C-A54A-42A9-AB74-3B1D5C66F79A}"/>
+    <hyperlink ref="A2" location="Scalar!A1" display="Convert" xr:uid="{CB3099C5-1D3D-4CB8-9BAB-0D15AD9A3387}"/>
+    <hyperlink ref="A3" location="d!A1" display="d" xr:uid="{3CABDCB0-9FE7-4ACB-9B7D-BAF51641A89D}"/>
+    <hyperlink ref="A4" location="Scalar!A1" display="Daily_RelRange" xr:uid="{C4A9A620-26DC-4C73-AD77-1A92A49FB9F6}"/>
+    <hyperlink ref="A6" location="Days_Distribution!A1" display="Days_Distribution" xr:uid="{7BCEBA5B-3852-4A91-8598-33F6CA9B0E2C}"/>
+    <hyperlink ref="A7" location="Diff_Release!A1" display="Diff_Release" xr:uid="{AEA53B4E-CC23-49C4-99EE-592BC656BA36}"/>
+    <hyperlink ref="A8" location="Duration!A1" display="Duration" xr:uid="{C199B068-5700-4819-877F-33B955016B6E}"/>
+    <hyperlink ref="A10" location="Energy_Price!A1" display="Energy_Price" xr:uid="{29E56655-9C29-4567-9DDC-2AFD962D3721}"/>
+    <hyperlink ref="A11" location="Energy_Rate!A1" display="Energy_Rate" xr:uid="{1AAD2D9E-4012-4F0A-93A7-05FFBD6D39B7}"/>
+    <hyperlink ref="A12" location="EQ10_SteadyFlow_Day!A1" display="EQ10_SteadyFlow_Day" xr:uid="{98720A84-1154-45A3-8739-47940FE0E32B}"/>
+    <hyperlink ref="A13" location="EQ12_OffsetRel!A1" display="EQ12_OffsetRel" xr:uid="{5A1F7BA5-E0E3-45E9-A30E-385BED64D6D1}"/>
+    <hyperlink ref="A14" location="EQ14_Steady_Saturdays!A1" display="EQ14_Steady_Saturdays" xr:uid="{B437DE8E-17CE-456E-9CC2-E615AA6FB3A1}"/>
+    <hyperlink ref="A15" location="EQ15_Steady_Weekdays!A1" display="EQ15_Steady_Weekdays" xr:uid="{D34512AF-2F97-47AB-BC6A-E4E8B6716D19}"/>
+    <hyperlink ref="A16" location="EQ17_OnPeak_UnsteadyDay!A1" display="EQ17_OnPeak_UnsteadyDay" xr:uid="{24B2ABC1-C86D-416E-A5D1-5C2DB3287ECC}"/>
+    <hyperlink ref="A17" location="EQ19_EnergyGen_Max!A1" display="EQ19_EnergyGen_Max" xr:uid="{1C608A1B-BB85-4584-ABA1-532577C24441}"/>
+    <hyperlink ref="A18" location="Scalar!A1" display="EQ1_ResMassBal" xr:uid="{5E72FA60-4220-444B-8AE1-4CE960D5C2CC}"/>
+    <hyperlink ref="A19" location="EQ20_EnergyGen!A1" display="EQ20_EnergyGen" xr:uid="{05849406-C08E-434D-BBAF-53D7A67981F5}"/>
+    <hyperlink ref="A20" location="Scalar!A1" display="EQ21_EnergyRevenue" xr:uid="{EAD59498-D532-4AA9-9253-98A23B47752A}"/>
+    <hyperlink ref="A21" location="Scalar!A1" display="EQ2_reqpowerstorage" xr:uid="{6FBE2373-7B7A-47F3-AAF5-32403C3FAF13}"/>
+    <hyperlink ref="A22" location="Scalar!A1" display="EQ3_maxstor" xr:uid="{01B13A6A-EA16-4582-916F-2B5B41516608}"/>
+    <hyperlink ref="A23" location="EQ4_MaxR!A1" display="EQ4_MaxR" xr:uid="{AEAAFD27-4E38-47C4-BF75-379D48091911}"/>
+    <hyperlink ref="A24" location="EQ5_MinR!A1" display="EQ5_MinR" xr:uid="{A64B0EBE-3BCF-4590-8125-C4A66EE225AE}"/>
+    <hyperlink ref="A25" location="EQ6_ZeroFlowDays!A1" display="EQ6_ZeroFlowDays" xr:uid="{1A4A432C-7C69-4132-957B-463ED705ABB3}"/>
+    <hyperlink ref="A26" location="EQ7_Rel_Range!A1" display="EQ7_Rel_Range" xr:uid="{BEBC35E8-CB46-4A9D-BB1E-93E117C23A10}"/>
+    <hyperlink ref="A27" location="Scalar!A1" display="EQ8_Monthtlyrel" xr:uid="{3469FCA1-4CB0-4EA4-ABA9-D1CB82032940}"/>
+    <hyperlink ref="A28" location="Scalar!A1" display="EQ9_RelVolume" xr:uid="{50B2C620-21EE-4E28-813C-E0D1AB01F065}"/>
+    <hyperlink ref="A29" location="Scalar!A1" display="evap" xr:uid="{518B9159-0F8F-4F8A-BC92-828C6AC11916}"/>
+    <hyperlink ref="A30" location="FlowPattern!A1" display="FlowPattern" xr:uid="{42A7ED1D-F4FD-4A50-9FBD-30420BC8980C}"/>
+    <hyperlink ref="A32" location="FStore!A1" display="FStore" xr:uid="{78FC093F-54AC-455A-9EF9-1AD317C2D5D3}"/>
+    <hyperlink ref="A33" location="Scalar!A1" display="Inflow" xr:uid="{9A07F8CF-AA24-4262-8084-99114E9CA404}"/>
+    <hyperlink ref="A34" location="Scalar!A1" display="Initstorage" xr:uid="{EEDC6AEF-7B72-4F64-8C1B-BCDFF1593D06}"/>
+    <hyperlink ref="A35" location="Scalar!A1" display="maxRel" xr:uid="{947B1BDC-D83F-445C-B3AD-BBF0E7B7E0E3}"/>
+    <hyperlink ref="A36" location="Scalar!A1" display="maxstorage" xr:uid="{C238248C-DB6B-4BCA-9212-22860C487988}"/>
+    <hyperlink ref="A37" location="Scalar!A1" display="minRel" xr:uid="{DB2E38F7-0779-4529-8ED4-DDD33984BB8C}"/>
+    <hyperlink ref="A38" location="Scalar!A1" display="minstorage" xr:uid="{BA72378D-7AF9-4F64-B8D6-569D6B97ECE8}"/>
+    <hyperlink ref="A39" location="ModelResults!A1" display="ModelResults" xr:uid="{5900C8C9-1CC7-48EA-BD9E-712E8CCFF17D}"/>
+    <hyperlink ref="A40" location="modpar!A1" display="modpar" xr:uid="{E86A4F5E-DFE1-40CF-8547-5BD181498304}"/>
+    <hyperlink ref="A41" location="Num_Days!A1" display="Num_Days" xr:uid="{6F7703AA-B559-4620-A55C-7099FDEAE55C}"/>
+    <hyperlink ref="A42" location="Scalar!A1" display="Nu_Saturdays" xr:uid="{90E4AA22-A560-4885-B522-DA993D735D57}"/>
+    <hyperlink ref="A43" location="Nu_SteadyDays!A1" display="Nu_SteadyDays" xr:uid="{53CE0291-1980-4E18-9F10-BE49F510BF80}"/>
+    <hyperlink ref="A44" location="Scalar!A1" display="Nu_Sun_Holi" xr:uid="{77A927A0-0AAA-47EF-B91B-218C28D18B85}"/>
+    <hyperlink ref="A45" location="Scalar!A1" display="ObjectiveVal" xr:uid="{B7C278B3-F612-4B78-9CE3-06383E25F570}"/>
+    <hyperlink ref="A46" location="Offset!A1" display="Offset" xr:uid="{29ACCC2D-0748-4B75-BAAD-28FDE7CC48F0}"/>
+    <hyperlink ref="A47" location="p!A1" display="p" xr:uid="{38A570D9-36AB-4326-BC54-3A1ABA7E62A3}"/>
+    <hyperlink ref="A49" location="Scalar!A1" display="Released_vol" xr:uid="{76789C00-7325-459F-9E8F-1E5CE6ECF124}"/>
+    <hyperlink ref="A50" location="RStore!A1" display="RStore" xr:uid="{71BFF657-B016-41AD-B6DF-CBEE21316247}"/>
+    <hyperlink ref="A52" location="Sstore!A1" display="Sstore" xr:uid="{CD63B831-5109-4A77-8028-3E9A7B4EF583}"/>
+    <hyperlink ref="A53" location="Scalar!A1" display="storage" xr:uid="{F62435E8-8F72-4525-960C-7B9F3BA00BC4}"/>
+    <hyperlink ref="A55" location="Scalar!A1" display="Totaldays" xr:uid="{6906B06B-80BF-4BE7-9CF6-C5E130E80095}"/>
+    <hyperlink ref="A56" location="Scalar!A1" display="TotMonth_volume" xr:uid="{3AA0517D-BCAB-4CAC-AF23-2EF850516EB7}"/>
+    <hyperlink ref="A57" location="tot_vol!A1" display="tot_vol" xr:uid="{82FAED88-15B0-47FB-A9F8-0D48C2D7205B}"/>
+    <hyperlink ref="A58" location="Vol_monthlyrelease!A1" display="Vol_monthlyrelease" xr:uid="{4B242F57-32A0-485C-8EBA-992B779990D0}"/>
+    <hyperlink ref="A60" location="Scalar!A1" display="Weekend_Rel" xr:uid="{1DA10029-D8EA-4DB0-B45E-B34526A4B55B}"/>
+    <hyperlink ref="A61" location="XStore!A1" display="XStore" xr:uid="{E57A202F-ED5F-468E-B8B3-CE4413D9F95F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5F1268-88D4-468D-90B6-9437FEAA5B8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036204E0-360E-40B8-898F-5ACDA599B866}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2140,7 +2140,7 @@
         <v>1000</v>
       </c>
       <c r="E4">
-        <v>-26.966585806451633</v>
+        <v>-17.624918709677445</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2161,16 +2161,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{461A2624-0BB1-4F05-A293-4AD0F21199A1}"/>
+  <autoFilter ref="A3:E5" xr:uid="{BEA0C67F-62EB-44F2-B825-3D87206736F3}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{CE9D8DDF-FABA-4CE6-8263-C48D109E1BB5}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{CCF6DF45-608E-4D93-8D9C-00A9DB8F6973}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FB820A-9A0D-44AF-95A3-2515D3B4B70F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBA464C-F990-4D70-886F-A0852FD390F9}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>-51.685956129032277</v>
+        <v>-21.536454193548384</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2496,16 +2496,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G15" xr:uid="{529E9829-1952-4591-9DA1-40D5E7FAC694}"/>
+  <autoFilter ref="A3:G15" xr:uid="{F85AA8F5-EABD-4CF5-885C-91705AFD9C21}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{583108AA-1AD2-43B2-A472-26D8F2BA5EFE}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{BBC008C6-CB13-4B18-BC90-525E4B848702}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29109871-997A-4106-824F-DD3B474C8AD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFC2360-C037-4B3A-9D18-1D89BD055478}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>103.37191225806454</v>
+        <v>67.562188387096754</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2831,16 +2831,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G15" xr:uid="{736B8EDA-3647-4845-A26B-3547147D5CC7}"/>
+  <autoFilter ref="A3:G15" xr:uid="{0860A70E-2411-48C1-A651-F96931D52B90}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{4310CE67-7D95-4626-A2E0-1EB24F02249D}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{81943712-CAA2-49F5-BEA7-43C2775B3047}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBD1919-82E7-4F0D-9BB2-6FE82B7C30CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB16F0BC-EF51-4723-8628-302509564956}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2963,7 +2963,7 @@
         <v>78</v>
       </c>
       <c r="F7">
-        <v>-21.363528533333344</v>
+        <v>-17.717875200000002</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2983,7 +2983,7 @@
         <v>78</v>
       </c>
       <c r="F8">
-        <v>-18.416834942528745</v>
+        <v>-3.5923622988505741</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3007,16 +3007,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{66ABB08F-D73A-4180-9DD0-07953BFCA5FE}"/>
+  <autoFilter ref="A3:F9" xr:uid="{8B7F67F6-3D83-4241-B954-359ACC62CC84}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{21C62625-C074-47F6-95A7-02BD10596B7E}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8AB553D2-F137-4612-8FB0-F35A442BC431}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD7E234-AC4C-4436-9D51-ECC3370F0F67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA98EBA-A0B1-4D8F-A591-609B1794976D}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3342,16 +3342,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G15" xr:uid="{50E54CF0-7251-4A14-86A4-6C916F961251}"/>
+  <autoFilter ref="A3:G15" xr:uid="{6790B1D9-3EAD-4828-A09E-398348549428}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3F6ECE43-388B-4326-9C7C-B4911EDAE1D0}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{414F32E2-4C85-4417-92E1-22AF0BD2CC81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF87397A-F64C-4050-A0A2-97F2F87E4C71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE26584-BB54-4365-8F84-B298379B6F16}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>198.8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1817</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3677,16 +3677,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G15" xr:uid="{027BCD87-CD82-4C9A-BBFC-079CE9F3DD02}"/>
+  <autoFilter ref="A3:G15" xr:uid="{0F9EAEE8-3A3B-4E09-A90A-B590615C7E71}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{23E8ECC5-968D-4720-B47D-2B42716228DB}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E90752B0-810C-44F9-A1C4-585D4974F859}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C19DB2-67C7-40AA-838E-49ADDC250543}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F636C9-936E-43F1-BC83-67A7F6358772}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4012,16 +4012,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G15" xr:uid="{26C36B64-F017-4B7A-9DC4-F457D738AB33}"/>
+  <autoFilter ref="A3:G15" xr:uid="{2F9CB412-7C80-4EAB-81ED-23C488B6178E}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{02CBD7E4-C5D4-4570-8C3B-9C8FC0ADD983}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{FCF12A98-B39F-467E-8FBB-7F442674B891}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6693CAB6-9229-4E3D-9F7F-A593A479CBA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2CE9E9-1247-471E-AA0D-5A4BF2706012}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4228,7 +4228,7 @@
         <v>78</v>
       </c>
       <c r="G10">
-        <v>-32.045292800000013</v>
+        <v>-26.576812800000003</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4274,7 +4274,7 @@
         <v>78</v>
       </c>
       <c r="G12">
-        <v>-27.625252413793117</v>
+        <v>-11.51086344827586</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4347,16 +4347,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G15" xr:uid="{3C3F3C0E-412A-4F07-A345-A6CCDE3B8ECF}"/>
+  <autoFilter ref="A3:G15" xr:uid="{18B2CFF6-FC28-4C0E-89A5-87AAB36F52AF}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{7C48577B-AEFD-440B-8F4C-4B31FE39D0D3}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{603692EA-5EE0-43EF-BA8E-C60353A98CF8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C48E0F-8B53-4606-A2F8-58EBAD80C372}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA36C55-9EE9-4E09-9C36-588F593B35A8}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4682,16 +4682,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G15" xr:uid="{1D270B3B-2108-49C7-A98F-27FA4293D1AF}"/>
+  <autoFilter ref="A3:G15" xr:uid="{66D1C065-A63A-4D04-AB66-7711C1E65640}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{2DEF1E06-C375-4B97-9EB3-5CEF4511199B}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{EC49EBDE-DF92-4A39-887C-E07B54CC87A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D673AE-26F9-4036-A7C4-E67180F7FCE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A1EDCE-641C-418F-A439-BA2E532A3909}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4854,20 +4854,20 @@
         <v>8000</v>
       </c>
       <c r="F9">
-        <v>52.809563870967736</v>
+        <v>40.63778580645166</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{6F6F0F1F-4500-4ABD-B026-61C6A69820A2}"/>
+  <autoFilter ref="A3:F9" xr:uid="{3D1DF54F-FB86-4DDD-A162-D070087E1E6F}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{1AEC664B-615B-4314-99B9-1B7133C7F139}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B3BF967C-518B-4D55-BC56-8C63456FCCE3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FCABE7-2A31-4387-971D-8FA00CC118CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F39A03-C291-4A7B-9E17-A512706B3629}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5238,7 +5238,7 @@
         <v>-1100000</v>
       </c>
       <c r="E28">
-        <v>-28.731932245109476</v>
+        <v>-28.021563026298743</v>
       </c>
       <c r="F28" t="s">
         <v>153</v>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>-28.731932245109476</v>
+        <v>-28.021563026298743</v>
       </c>
       <c r="F29" t="s">
         <v>155</v>
@@ -5266,14 +5266,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A8E97D35-39A1-4677-9302-10886AB41C0F}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{47BCB19B-341C-4FA7-85C1-C56F4E3C72D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9500ADC0-8D10-4479-84C5-EAF968BA250A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A28D08-288D-4600-932A-F105E6B46FAC}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5315,16 +5315,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{C3DEE25D-5882-4271-A311-C3DB2191CBD5}"/>
+  <autoFilter ref="A3:A5" xr:uid="{8DBE6F33-E47D-4311-A76B-53E09818A612}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C2998676-89C6-4422-96C5-99E96BE81D00}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{DEFA22BD-0D8D-4EC0-BA79-A4021A8B69B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E574E853-3D0B-49FA-8BD3-6B75F1A49446}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6033179-A686-4982-84D2-5F800EFF751F}">
   <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5375,7 +5375,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>21477554.027951811</v>
+        <v>20665638.002891563</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5389,7 +5389,7 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>21477554.027951811</v>
+        <v>20665638.002891563</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5403,7 +5403,7 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <v>21477554.027951811</v>
+        <v>20665638.002891563</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5417,7 +5417,7 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>21477554.027951814</v>
+        <v>20665638.002891563</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5431,7 +5431,7 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>21477554.027951811</v>
+        <v>20665638.002891563</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5445,7 +5445,7 @@
         <v>22</v>
       </c>
       <c r="D9">
-        <v>21477554.027951814</v>
+        <v>20665638.002891563</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5459,7 +5459,7 @@
         <v>23</v>
       </c>
       <c r="D10">
-        <v>21477554.027951803</v>
+        <v>20665638.00289157</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5473,7 +5473,7 @@
         <v>24</v>
       </c>
       <c r="D11">
-        <v>21477554.027951803</v>
+        <v>20665638.002891563</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5487,7 +5487,7 @@
         <v>25</v>
       </c>
       <c r="D12">
-        <v>21238956.600823943</v>
+        <v>20482033.548946753</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5501,7 +5501,7 @@
         <v>26</v>
       </c>
       <c r="D13">
-        <v>20886892.841684159</v>
+        <v>20211114.976903748</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5515,7 +5515,7 @@
         <v>27</v>
       </c>
       <c r="D14">
-        <v>20534829.082544375</v>
+        <v>19940196.404860731</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5529,7 +5529,7 @@
         <v>28</v>
       </c>
       <c r="D15">
-        <v>20112352.571576633</v>
+        <v>19615094.11840912</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5543,7 +5543,7 @@
         <v>11</v>
       </c>
       <c r="D16">
-        <v>24744095.699277118</v>
+        <v>23754360.975421686</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5557,7 +5557,7 @@
         <v>18</v>
       </c>
       <c r="D17">
-        <v>24721643.850602411</v>
+        <v>23735740.500240967</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5571,7 +5571,7 @@
         <v>19</v>
       </c>
       <c r="D18">
-        <v>24700988.149821691</v>
+        <v>23718609.663074702</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5585,7 +5585,7 @@
         <v>20</v>
       </c>
       <c r="D19">
-        <v>24664266.903989296</v>
+        <v>23688154.841445781</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5599,7 +5599,7 @@
         <v>21</v>
       </c>
       <c r="D20">
-        <v>24632610.657582056</v>
+        <v>23674964.347320314</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5613,7 +5613,7 @@
         <v>22</v>
       </c>
       <c r="D21">
-        <v>24605039.088130593</v>
+        <v>23663475.852436841</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5627,7 +5627,7 @@
         <v>23</v>
       </c>
       <c r="D22">
-        <v>24534626.336302631</v>
+        <v>23609292.138028245</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5641,7 +5641,7 @@
         <v>24</v>
       </c>
       <c r="D23">
-        <v>24464213.584474675</v>
+        <v>23555108.423619639</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5655,7 +5655,7 @@
         <v>25</v>
       </c>
       <c r="D24">
-        <v>24112149.825334888</v>
+        <v>23284189.851576626</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5669,7 +5669,7 @@
         <v>26</v>
       </c>
       <c r="D25">
-        <v>23760086.066195104</v>
+        <v>23013271.279533621</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5683,7 +5683,7 @@
         <v>27</v>
       </c>
       <c r="D26">
-        <v>23408022.307055321</v>
+        <v>22742352.707490604</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5697,7 +5697,7 @@
         <v>28</v>
       </c>
       <c r="D27">
-        <v>22985545.796087582</v>
+        <v>22417250.421038993</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5711,7 +5711,7 @@
         <v>11</v>
       </c>
       <c r="D28">
-        <v>27842912.968353424</v>
+        <v>26703981.457349397</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5725,7 +5725,7 @@
         <v>18</v>
       </c>
       <c r="D29">
-        <v>27784032.23748327</v>
+        <v>26655148.632771086</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5739,7 +5739,7 @@
         <v>19</v>
       </c>
       <c r="D30">
-        <v>27729861.965082735</v>
+        <v>26610222.434159037</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5753,7 +5753,7 @@
         <v>20</v>
       </c>
       <c r="D31">
-        <v>27633559.258592896</v>
+        <v>26530353.636626504</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5767,7 +5767,7 @@
         <v>21</v>
       </c>
       <c r="D32">
-        <v>27550539.68403269</v>
+        <v>26495761.120620415</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5781,7 +5781,7 @@
         <v>22</v>
       </c>
       <c r="D33">
-        <v>27478232.312641539</v>
+        <v>26465632.155066717</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5795,7 +5795,7 @@
         <v>23</v>
       </c>
       <c r="D34">
-        <v>27407819.56081358</v>
+        <v>26411448.440658122</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5809,7 +5809,7 @@
         <v>24</v>
       </c>
       <c r="D35">
-        <v>27337406.808985624</v>
+        <v>26357264.726249516</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5823,7 +5823,7 @@
         <v>25</v>
       </c>
       <c r="D36">
-        <v>26985343.049845837</v>
+        <v>26086346.154206503</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5837,7 +5837,7 @@
         <v>26</v>
       </c>
       <c r="D37">
-        <v>26633279.290706053</v>
+        <v>25815427.582163498</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5851,7 +5851,7 @@
         <v>27</v>
       </c>
       <c r="D38">
-        <v>26281215.53156627</v>
+        <v>25544509.010120481</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5865,7 +5865,7 @@
         <v>28</v>
       </c>
       <c r="D39">
-        <v>25858739.020598527</v>
+        <v>25219406.72366887</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5879,7 +5879,7 @@
         <v>11</v>
       </c>
       <c r="D40">
-        <v>30941730.237429727</v>
+        <v>29653601.939277109</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5893,7 +5893,7 @@
         <v>18</v>
       </c>
       <c r="D41">
-        <v>30846420.624364123</v>
+        <v>29574556.765301205</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5907,7 +5907,7 @@
         <v>19</v>
       </c>
       <c r="D42">
-        <v>30758735.780343782</v>
+        <v>29501835.205243375</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5921,7 +5921,7 @@
         <v>20</v>
       </c>
       <c r="D43">
-        <v>30602851.613196496</v>
+        <v>29372552.431807227</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5935,7 +5935,7 @@
         <v>21</v>
       </c>
       <c r="D44">
-        <v>30468468.71048332</v>
+        <v>29316557.893920511</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5949,7 +5949,7 @@
         <v>22</v>
       </c>
       <c r="D45">
-        <v>30351425.537152488</v>
+        <v>29267788.457696591</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5963,7 +5963,7 @@
         <v>23</v>
       </c>
       <c r="D46">
-        <v>30281012.785324525</v>
+        <v>29213604.743287995</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5977,7 +5977,7 @@
         <v>24</v>
       </c>
       <c r="D47">
-        <v>30210600.03349657</v>
+        <v>29159421.028879389</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5991,7 +5991,7 @@
         <v>25</v>
       </c>
       <c r="D48">
-        <v>29858536.274356782</v>
+        <v>28888502.456836376</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6005,7 +6005,7 @@
         <v>26</v>
       </c>
       <c r="D49">
-        <v>29506472.515216999</v>
+        <v>28617583.884793371</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6019,7 +6019,7 @@
         <v>27</v>
       </c>
       <c r="D50">
-        <v>29154408.756077215</v>
+        <v>28346665.312750354</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6033,7 +6033,7 @@
         <v>28</v>
       </c>
       <c r="D51">
-        <v>28731932.245109476</v>
+        <v>28021563.026298743</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6047,7 +6047,7 @@
         <v>11</v>
       </c>
       <c r="D52">
-        <v>34040547.506506033</v>
+        <v>32603222.42120482</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6061,7 +6061,7 @@
         <v>18</v>
       </c>
       <c r="D53">
-        <v>33908809.011244982</v>
+        <v>32493964.897831324</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6075,7 +6075,7 @@
         <v>19</v>
       </c>
       <c r="D54">
-        <v>33787609.595604822</v>
+        <v>32393447.97632771</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6089,7 +6089,7 @@
         <v>20</v>
       </c>
       <c r="D55">
-        <v>33572143.967800096</v>
+        <v>32214751.226987951</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6103,7 +6103,7 @@
         <v>21</v>
       </c>
       <c r="D56">
-        <v>33386397.73693395</v>
+        <v>32137354.667220607</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6117,7 +6117,7 @@
         <v>22</v>
       </c>
       <c r="D57">
-        <v>33224618.761663437</v>
+        <v>32069944.760326464</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6131,7 +6131,7 @@
         <v>23</v>
       </c>
       <c r="D58">
-        <v>33154206.009835474</v>
+        <v>32015761.045917872</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6145,7 +6145,7 @@
         <v>24</v>
       </c>
       <c r="D59">
-        <v>33083793.258007519</v>
+        <v>31961577.331509262</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6159,7 +6159,7 @@
         <v>25</v>
       </c>
       <c r="D60">
-        <v>32731729.498867732</v>
+        <v>31690658.759466249</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6173,7 +6173,7 @@
         <v>26</v>
       </c>
       <c r="D61">
-        <v>32379665.739727948</v>
+        <v>31419740.187423244</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6187,7 +6187,7 @@
         <v>27</v>
       </c>
       <c r="D62">
-        <v>32027601.980588164</v>
+        <v>31148821.615380228</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6201,7 +6201,7 @@
         <v>28</v>
       </c>
       <c r="D63">
-        <v>31605125.469620425</v>
+        <v>30823719.328928616</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6215,7 +6215,7 @@
         <v>11</v>
       </c>
       <c r="D64">
-        <v>21477554.027951811</v>
+        <v>20665638.002891563</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6229,7 +6229,7 @@
         <v>18</v>
       </c>
       <c r="D65">
-        <v>21451430.147951812</v>
+        <v>20643972.122891564</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6243,7 +6243,7 @@
         <v>19</v>
       </c>
       <c r="D66">
-        <v>21425306.267951813</v>
+        <v>20622306.242891565</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6257,7 +6257,7 @@
         <v>20</v>
       </c>
       <c r="D67">
-        <v>21373058.507951811</v>
+        <v>20578974.482891563</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6271,7 +6271,7 @@
         <v>21</v>
       </c>
       <c r="D68">
-        <v>21320810.747951809</v>
+        <v>20547887.362891562</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6285,7 +6285,7 @@
         <v>22</v>
       </c>
       <c r="D69">
-        <v>21268562.987951811</v>
+        <v>20516800.242891561</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6299,7 +6299,7 @@
         <v>23</v>
       </c>
       <c r="D70">
-        <v>21259855.027951807</v>
+        <v>20509578.282891572</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6313,7 +6313,7 @@
         <v>24</v>
       </c>
       <c r="D71">
-        <v>21251147.067951802</v>
+        <v>20502356.322891563</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6327,7 +6327,7 @@
         <v>25</v>
       </c>
       <c r="D72">
-        <v>21167045.705340073</v>
+        <v>20435033.765720945</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6341,7 +6341,7 @@
         <v>26</v>
       </c>
       <c r="D73">
-        <v>20837454.101038996</v>
+        <v>20178802.625936005</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6355,7 +6355,7 @@
         <v>27</v>
       </c>
       <c r="D74">
-        <v>20507862.496737923</v>
+        <v>19922571.486151055</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6369,7 +6369,7 @@
         <v>28</v>
       </c>
       <c r="D75">
-        <v>20112352.571576633</v>
+        <v>19615094.11840912</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6383,7 +6383,7 @@
         <v>11</v>
       </c>
       <c r="D76">
-        <v>24744095.699277118</v>
+        <v>23754360.975421686</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6397,7 +6397,7 @@
         <v>18</v>
       </c>
       <c r="D77">
-        <v>24704953.59393575</v>
+        <v>23721898.410240967</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6411,7 +6411,7 @@
         <v>19</v>
       </c>
       <c r="D78">
-        <v>24668942.857021689</v>
+        <v>23692032.850274701</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6425,7 +6425,7 @@
         <v>20</v>
       </c>
       <c r="D79">
-        <v>24604923.769174479</v>
+        <v>23638938.521445781</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6439,7 +6439,7 @@
         <v>21</v>
       </c>
       <c r="D80">
-        <v>24549734.900340676</v>
+        <v>23615942.476975489</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6453,7 +6453,7 @@
         <v>22</v>
       </c>
       <c r="D81">
-        <v>24501667.175872527</v>
+        <v>23595913.664049745</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6467,7 +6467,7 @@
         <v>23</v>
       </c>
       <c r="D82">
-        <v>24435748.855012309</v>
+        <v>23544667.43609276</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6481,7 +6481,7 @@
         <v>24</v>
       </c>
       <c r="D83">
-        <v>24369830.534152094</v>
+        <v>23493421.208135769</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6495,7 +6495,7 @@
         <v>25</v>
       </c>
       <c r="D84">
-        <v>24040238.929851018</v>
+        <v>23237190.068350818</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6509,7 +6509,7 @@
         <v>26</v>
       </c>
       <c r="D85">
-        <v>23710647.325549942</v>
+        <v>22980958.928565878</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6523,7 +6523,7 @@
         <v>27</v>
       </c>
       <c r="D86">
-        <v>23381055.721248869</v>
+        <v>22724727.788780928</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6537,7 +6537,7 @@
         <v>28</v>
       </c>
       <c r="D87">
-        <v>22985545.796087582</v>
+        <v>22417250.421038993</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6551,7 +6551,7 @@
         <v>11</v>
       </c>
       <c r="D88">
-        <v>27842912.968353424</v>
+        <v>26703981.457349397</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6565,7 +6565,7 @@
         <v>18</v>
       </c>
       <c r="D89">
-        <v>27767341.980816603</v>
+        <v>26641306.542771086</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6579,7 +6579,7 @@
         <v>19</v>
       </c>
       <c r="D90">
-        <v>27697816.672282733</v>
+        <v>26583645.621359035</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6593,7 +6593,7 @@
         <v>20</v>
       </c>
       <c r="D91">
-        <v>27574216.123778079</v>
+        <v>26481137.316626504</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6607,7 +6607,7 @@
         <v>21</v>
       </c>
       <c r="D92">
-        <v>27467663.92679131</v>
+        <v>26436739.250275586</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6621,7 +6621,7 @@
         <v>22</v>
       </c>
       <c r="D93">
-        <v>27374860.400383472</v>
+        <v>26398069.966679621</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6635,7 +6635,7 @@
         <v>23</v>
       </c>
       <c r="D94">
-        <v>27308942.079523258</v>
+        <v>26346823.738722637</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6649,7 +6649,7 @@
         <v>24</v>
       </c>
       <c r="D95">
-        <v>27243023.758663043</v>
+        <v>26295577.510765646</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6663,7 +6663,7 @@
         <v>25</v>
       </c>
       <c r="D96">
-        <v>26913432.154361967</v>
+        <v>26039346.370980695</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6677,7 +6677,7 @@
         <v>26</v>
       </c>
       <c r="D97">
-        <v>26583840.550060891</v>
+        <v>25783115.231195755</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6691,7 +6691,7 @@
         <v>27</v>
       </c>
       <c r="D98">
-        <v>26254248.945759818</v>
+        <v>25526884.091410805</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6705,7 +6705,7 @@
         <v>28</v>
       </c>
       <c r="D99">
-        <v>25858739.020598527</v>
+        <v>25219406.72366887</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6719,7 +6719,7 @@
         <v>11</v>
       </c>
       <c r="D100">
-        <v>30941730.237429727</v>
+        <v>29653601.939277109</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6733,7 +6733,7 @@
         <v>18</v>
       </c>
       <c r="D101">
-        <v>30829730.367697462</v>
+        <v>29560714.675301205</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6747,7 +6747,7 @@
         <v>19</v>
       </c>
       <c r="D102">
-        <v>30726690.48754378</v>
+        <v>29475258.392443374</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6761,7 +6761,7 @@
         <v>20</v>
       </c>
       <c r="D103">
-        <v>30543508.478381678</v>
+        <v>29323336.111807227</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6775,7 +6775,7 @@
         <v>21</v>
       </c>
       <c r="D104">
-        <v>30385592.953241941</v>
+        <v>29257536.023575682</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6789,7 +6789,7 @@
         <v>22</v>
       </c>
       <c r="D105">
-        <v>30248053.624894422</v>
+        <v>29200226.269309495</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6803,7 +6803,7 @@
         <v>23</v>
       </c>
       <c r="D106">
-        <v>30182135.304034203</v>
+        <v>29148980.04135251</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6817,7 +6817,7 @@
         <v>24</v>
       </c>
       <c r="D107">
-        <v>30116216.983173989</v>
+        <v>29097733.813395519</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6831,7 +6831,7 @@
         <v>25</v>
       </c>
       <c r="D108">
-        <v>29786625.378872912</v>
+        <v>28841502.673610568</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6845,7 +6845,7 @@
         <v>26</v>
       </c>
       <c r="D109">
-        <v>29457033.774571836</v>
+        <v>28585271.533825628</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6859,7 +6859,7 @@
         <v>27</v>
       </c>
       <c r="D110">
-        <v>29127442.170270763</v>
+        <v>28329040.394040678</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6873,7 +6873,7 @@
         <v>28</v>
       </c>
       <c r="D111">
-        <v>28731932.245109476</v>
+        <v>28021563.026298743</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6887,7 +6887,7 @@
         <v>11</v>
       </c>
       <c r="D112">
-        <v>34040547.506506033</v>
+        <v>32603222.42120482</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6901,7 +6901,7 @@
         <v>18</v>
       </c>
       <c r="D113">
-        <v>33892118.754578315</v>
+        <v>32480122.807831325</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6915,7 +6915,7 @@
         <v>19</v>
       </c>
       <c r="D114">
-        <v>33755564.302804828</v>
+        <v>32366871.163527709</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6929,7 +6929,7 @@
         <v>20</v>
       </c>
       <c r="D115">
-        <v>33512800.832985278</v>
+        <v>32165534.90698795</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6943,7 +6943,7 @@
         <v>21</v>
       </c>
       <c r="D116">
-        <v>33303521.979692571</v>
+        <v>32078332.796875779</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6957,7 +6957,7 @@
         <v>22</v>
       </c>
       <c r="D117">
-        <v>33121246.849405371</v>
+        <v>32002382.571939368</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6971,7 +6971,7 @@
         <v>23</v>
       </c>
       <c r="D118">
-        <v>33055328.528545152</v>
+        <v>31951136.343982387</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6985,7 +6985,7 @@
         <v>24</v>
       </c>
       <c r="D119">
-        <v>32989410.207684938</v>
+        <v>31899890.116025392</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6999,7 +6999,7 @@
         <v>25</v>
       </c>
       <c r="D120">
-        <v>32659818.603383861</v>
+        <v>31643658.976240441</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7013,7 +7013,7 @@
         <v>26</v>
       </c>
       <c r="D121">
-        <v>32330226.999082785</v>
+        <v>31387427.836455502</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7027,7 +7027,7 @@
         <v>27</v>
       </c>
       <c r="D122">
-        <v>32000635.394781712</v>
+        <v>31131196.696670551</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7041,20 +7041,20 @@
         <v>28</v>
       </c>
       <c r="D123">
-        <v>31605125.469620425</v>
+        <v>30823719.328928616</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D123" xr:uid="{7DF326C2-74F5-49E8-9171-AB373FDF8440}"/>
+  <autoFilter ref="A3:D123" xr:uid="{2165E1BD-D20A-411A-9F1E-11D2D87B3732}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C58BFB7A-854E-4B25-8AB5-4F98897D59DC}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{BBDDF951-9BF7-4710-AB0F-C0EDEC5874C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC02B006-18EC-4F6E-81A9-BFD18FAFDA78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D7FCD4-728B-4F64-8DB7-67281511E877}">
   <dimension ref="A1:E243"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11178,16 +11178,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E243" xr:uid="{6AFE1CA2-DD83-4183-87E5-E3C3CB336E2C}"/>
+  <autoFilter ref="A3:E243" xr:uid="{344CFADD-83A4-457E-8E0F-66528F3EB64E}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6432BBAA-0994-4F90-90CA-61786C401A92}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F23A3B0F-459F-4C7D-991C-DBB7C488209B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B3B641-B9AB-4BC3-9016-6240E088615A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A64BA4-F6DD-4381-937B-7D88CD957F7B}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11235,16 +11235,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{F27D8EC5-38A3-4DB4-8E7C-8194692F116C}"/>
+  <autoFilter ref="A3:A5" xr:uid="{A8C752A6-245C-46EE-BA74-B8BAA0E98EA2}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F8F3EF8D-157E-4FB3-BD8E-FCE606FADFDB}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{22C02F30-A0C2-463B-AF47-26D59AD99C56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBC0FF1-3B3D-42E3-9EE8-CC1329843840}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF29125-DD44-4C41-A64A-BCC2CAF84EB9}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11348,16 +11348,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{648C05B6-3331-4FBC-8BBD-07B53C85244D}"/>
+  <autoFilter ref="A3:C9" xr:uid="{F6CC6C2F-1791-4DC6-A601-B19BA6EEBC38}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F316D3DC-5604-4615-BC38-122C132E6D6B}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{2756A122-1D42-4AC6-A083-CE25F7C76CA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC3D03F-7FD1-46E0-BBE7-3F3CFF03CA5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E00531-49F3-4943-AD9B-4B86C2F4DA9C}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11449,16 +11449,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A15" xr:uid="{7B200E00-02BB-4414-AD58-140E6CBCE5CB}"/>
+  <autoFilter ref="A3:A15" xr:uid="{73168182-B1DE-47F5-9701-510485BC38DC}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A8F7CF65-7E8B-4333-B43E-29F28C031699}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{67776996-F35C-4FC4-A3D8-E19EA01C2C8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1730D2-B1ED-462E-96F1-FDB4CB039DF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33ACD9F-4D27-45D6-8ADA-141F2EE7C9F5}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11500,16 +11500,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{85CE67E9-1F55-4E92-9ACA-9886BE5AF03C}"/>
+  <autoFilter ref="A3:A5" xr:uid="{F4337E2D-388B-484E-BFB6-7C324D2C3667}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{42D1A538-C3A1-4A37-85FA-233AD75FF182}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{849CF544-A27C-4981-84B0-EDF991C1295A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C428BD37-A113-4E8B-9693-C11F8754B70D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251C53F3-AB86-4A95-B5E6-64899F6D441F}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11557,16 +11557,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{501DB262-F273-4725-9A98-213F5F521573}"/>
+  <autoFilter ref="A3:A5" xr:uid="{94E8B321-EE19-4DD4-A94E-224420C6BF6E}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{43CE0C63-BD59-4771-B5AF-16E38EF338BD}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{CF38099B-7A3C-4101-8ACA-B63350B6167B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA130307-D0D0-45A6-BC4E-8237783463F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56322A8C-8E39-4B6C-9D12-A08210A632D3}">
   <dimension ref="A1:G1443"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -44736,16 +44736,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G1443" xr:uid="{08D36933-73F9-4C39-95D1-9EC40811C446}"/>
+  <autoFilter ref="A3:G1443" xr:uid="{7C474296-A7AA-49A0-8098-79146082C3A5}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B103D31B-0F87-42B0-9591-698D7307C40E}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3FC8ECCE-1AE8-4D92-ABDE-162264E31FCE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05953246-FAFA-4E43-A8F7-C53779E6CC45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E039C5-2DC4-439E-A79E-C0552F554450}">
   <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -46466,16 +46466,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D123" xr:uid="{731F44CA-E6C2-40F2-ABA1-1721739BA8FC}"/>
+  <autoFilter ref="A3:D123" xr:uid="{741393EC-23AD-4923-BF94-D2C2F2A3B1D4}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E9516843-D682-4632-BCE3-64C200A8B6AE}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{5D9A29D0-EB24-4CA2-9A60-9558E4739243}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1AE6908-A596-4D5A-8947-A37CBD0D42D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1846AD2C-9DFC-4F69-AFD4-3DF41D7D2483}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -46522,16 +46522,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A6" xr:uid="{509CFA96-79F5-4E63-81EE-3E55F0E7BEFE}"/>
+  <autoFilter ref="A3:A6" xr:uid="{99704D6E-2C4F-488B-B85A-0527AB84C0DA}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8CEA46A3-F732-4A82-BEAA-ABDD0F6A8703}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{46423F63-2135-459B-A9B2-CD77F8AF2899}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736A233B-4D8D-439A-9EDD-07EA8D695EAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AE81F8-B509-4E0D-947F-785601CD6290}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -46588,16 +46588,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A8" xr:uid="{54E996D7-0C77-482C-A383-17217E17D6D9}"/>
+  <autoFilter ref="A3:A8" xr:uid="{B114DC63-FF8D-41B7-838B-2F986D9E719E}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3D1E3020-97B5-42C8-B5C0-6F7EFBF352E0}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{99B20C82-BC62-4A02-B14B-059128CE663E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AA7C7D-6E18-4939-BD9D-F56F9B8D712F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61D88E2-511C-4841-8074-6DA56F978DAC}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -46672,16 +46672,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B8" xr:uid="{55F0A986-EAD5-46AE-A35C-01C0B0E4B849}"/>
+  <autoFilter ref="A3:B8" xr:uid="{2DA484AE-2191-409A-8584-8DB0F2FBA64F}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{85C7013B-E6E2-47F2-8190-927B6D7273C0}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{DDB8574A-8CD5-409A-8543-C8B0D6B49AE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45E6A91-786D-4045-BA4D-1F6B83783809}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA65D20-AEFE-4189-8B0F-8C7D0ADC8768}">
   <dimension ref="A1:F723"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -61128,16 +61128,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F723" xr:uid="{D61721B5-1745-4607-95D1-1486EA2D56CC}"/>
+  <autoFilter ref="A3:F723" xr:uid="{96B686C0-B280-47E4-B043-5D1C14588F27}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3F710C90-4C0F-4F65-A80B-015BDD2BA1F7}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E286362F-DB98-410A-AA84-6A34740A958C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6478A3-9A94-47B3-B63E-7A25E0AF4D4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54278C2A-DB4A-4C76-A896-F29425D201F3}">
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -61794,16 +61794,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D47" xr:uid="{7D23A80C-26BC-409D-BAF8-F0B836A2D886}"/>
+  <autoFilter ref="A3:D47" xr:uid="{10A9EBC2-5624-4033-87B5-68FDF66D61BE}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E07D1653-92E8-4C86-83C5-955F8810C1AD}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{CF1B6042-C241-46B7-B395-5A881BB0DC73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6293DFBE-EAB9-4EB9-B041-40243A7B6946}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2A0CF7-5A4A-4170-BF69-E912A1476BED}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -61846,16 +61846,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B4" xr:uid="{4DFD387F-F12D-4C7B-A0CA-125BF9086EF7}"/>
+  <autoFilter ref="A3:B4" xr:uid="{D5019170-331C-408D-A2C0-5728D30FD71E}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C42BDE1A-731E-4989-9B69-6A856AD416C7}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{12EEE657-F980-4810-95B5-B4452D04229D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEDD42E-0262-41BF-9901-AD64B85F88F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDBFA4E-BCA1-4EF9-95F8-0DC7391A6CCC}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -61906,16 +61906,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{5BEA8DAF-4561-4F62-993F-665A473F9521}"/>
+  <autoFilter ref="A3:B5" xr:uid="{28C28AC0-D4E0-46AF-A295-47EE5652332A}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A8D3260B-8D8E-431A-8A44-D9790FD51876}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{0347A330-A030-4FC1-9742-0FC0B052D4AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B256BC8-D481-495A-B7D1-7310A652756F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D351E2-2DF1-43ED-BA79-FC03BED0A8C0}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -61993,7 +61993,7 @@
         <v>46</v>
       </c>
       <c r="C7">
-        <v>49.7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -62015,20 +62015,20 @@
         <v>46</v>
       </c>
       <c r="C9">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{ED578BB2-5C2B-4E82-BF2F-948FFC7287BD}"/>
+  <autoFilter ref="A3:C9" xr:uid="{33A10EB8-F5CC-480B-A4E9-A4A948FD7BF8}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{2EF82F08-0F18-425A-AC48-A8F12272E405}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{FB7A2F65-A2E4-4537-A1D5-A306F5F4A34B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14990B88-059D-4749-A4C6-B69799C088DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD34DECD-37A1-4620-9004-DEB0C456D752}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -62106,7 +62106,7 @@
         <v>46</v>
       </c>
       <c r="C7">
-        <v>49.7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -62128,20 +62128,20 @@
         <v>46</v>
       </c>
       <c r="C9">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{0286B40D-3791-4AC4-9554-51577EDF15E3}"/>
+  <autoFilter ref="A3:C9" xr:uid="{434DB611-8842-4192-B913-67976FB1EA92}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{394B0A77-6FD6-4B15-A221-D345F369EFAE}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{742F7664-0E48-445D-9FDD-02537E43AE63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B858C0-E8E6-4975-85CC-10B9AB434E60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D542E72C-191C-4CA7-A1C2-C538DA715616}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -62204,7 +62204,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-34.457304086021516</v>
+        <v>-30.683822795698919</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -62224,7 +62224,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-34.457304086021516</v>
+        <v>-6.1945427956989247</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -62244,7 +62244,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>202.43666150537626</v>
+        <v>155.77817892473115</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -62308,9 +62308,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{82F8F64F-FC5A-44E1-BFC7-E81FD72228E7}"/>
+  <autoFilter ref="A3:F9" xr:uid="{C0B0F067-460C-46CF-9FE2-AF606DEF9697}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{92C0E138-0FEE-46B5-8672-03536A288F80}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{83E8B027-1B1A-4889-BA95-C77BA4EB866A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
